--- a/zib2017-2020/mapping/excel/AllergieIntolerantie.xlsx
+++ b/zib2017-2020/mapping/excel/AllergieIntolerantie.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -293,7 +296,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -588,6 +620,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -1084,6 +1123,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O16"/>
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zib2017-2020/mapping/excel/AllergieIntolerantie.xlsx
+++ b/zib2017-2020/mapping/excel/AllergieIntolerantie.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D019B78-931B-7A48-9065-17B9B0C17A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25880" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>ZibName</t>
   </si>
@@ -213,9 +219,6 @@
     <t>SNOMED CT code bij item in valueset vervangen</t>
   </si>
   <si>
-    <t>NO CHANGE</t>
-  </si>
-  <si>
     <t>VALUESET CHANGES</t>
   </si>
   <si>
@@ -234,8 +237,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +303,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
         </patternFill>
       </fill>
     </dxf>
@@ -314,26 +324,27 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFA003"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +382,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -405,6 +416,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,9 +451,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,21 +627,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -694,11 +709,8 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -730,22 +742,22 @@
         <v>60</v>
       </c>
       <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>65</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>66</v>
       </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -770,11 +782,8 @@
       <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -799,11 +808,8 @@
       <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -822,11 +828,8 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -851,11 +854,8 @@
       <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -874,11 +874,8 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -897,11 +894,8 @@
       <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -920,11 +914,8 @@
       <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -956,22 +947,22 @@
         <v>61</v>
       </c>
       <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>64</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>65</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>66</v>
       </c>
-      <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1003,22 +994,22 @@
         <v>60</v>
       </c>
       <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
         <v>63</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>64</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>65</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>66</v>
       </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1037,11 +1028,8 @@
       <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1066,11 +1054,8 @@
       <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1095,11 +1080,8 @@
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="K15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1118,23 +1100,20 @@
       <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="K16" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O16"/>
+  <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E2:E16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"groen: geen wijzigingen"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"geel: patch wijziging"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"oranje: minor change"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"rood: major change"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zib2017-2020/mapping/excel/AllergieIntolerantie.xlsx
+++ b/zib2017-2020/mapping/excel/AllergieIntolerantie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindamook/Documents/GitHub/nictiz/Zibtranslate/zib2017-2020/mapping/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D019B78-931B-7A48-9065-17B9B0C17A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219ECB20-87CF-8E48-96FA-39F3DD704042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="25880" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12020" yWindow="3060" windowWidth="25880" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translations" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$16</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>ZibName</t>
   </si>
@@ -213,32 +226,38 @@
     <t>ZIB-1856</t>
   </si>
   <si>
+    <t>SNOMED CT code bij item in valueset vervangen</t>
+  </si>
+  <si>
+    <t>VALUESET CHANGES</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>In de bij het concept  wordt verwezen naar een vervallen referentieset: 42931000146101. Deze is  vervangen door: 98061000146100.</t>
   </si>
   <si>
-    <t>SNOMED CT code bij item in valueset vervangen</t>
-  </si>
-  <si>
-    <t>VALUESET CHANGES</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>valuesets 2017 -&gt; valueset 2020 regel</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>valuesets 2017 &lt;- valueset 2020 regel</t>
+    <t>VALUESET ADDITION</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>new valueset [valueset name] added in [baseline 2020]</t>
+  </si>
+  <si>
+    <t>existing valueset [valuesetname] changed in [baseline 2020]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +273,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -286,15 +312,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,17 +676,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="15" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="40.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="15" width="40.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -691,413 +738,413 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N3" t="s">
+      <c r="K12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O3" t="s">
+      <c r="L12" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="M12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
